--- a/result/算法对比.xlsx
+++ b/result/算法对比.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TBM_HX\DARNN-transfer\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0F6D52-FC7F-4D8A-91C8-E6624CFF7DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477A560D-BAD0-45EB-97FE-159CF9E467C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="广湛向海珠湾东线迁移" sheetId="1" r:id="rId1"/>
+    <sheet name="广湛向海珠湾西线迁移" sheetId="2" r:id="rId2"/>
+    <sheet name="广湛向通苏嘉甬迁移" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="18">
   <si>
     <t>方法\指标</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,6 +101,15 @@
     <t>整体</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>DA-LSTM迁移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DANN-LSTM
+200环训练，800环测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -160,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -186,13 +197,25 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -477,16 +500,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="16.59765625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.59765625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.59765625" style="2" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="9.06640625" style="4"/>
     <col min="4" max="4" width="9.06640625" style="5"/>
     <col min="5" max="5" width="11.6640625" style="4" customWidth="1"/>
@@ -504,42 +528,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9" t="s">
+      <c r="D1" s="15"/>
+      <c r="E1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9" t="s">
+      <c r="F1" s="15"/>
+      <c r="G1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9" t="s">
+      <c r="H1" s="15"/>
+      <c r="I1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9" t="s">
+      <c r="J1" s="15"/>
+      <c r="K1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9" t="s">
+      <c r="L1" s="15"/>
+      <c r="M1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="9"/>
+      <c r="N1" s="15"/>
       <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="9"/>
+      <c r="A2" s="15"/>
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
@@ -577,8 +601,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3">
@@ -645,8 +669,8 @@
         <v>0.20011685189018899</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="9"/>
+    <row r="4" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="15"/>
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -681,8 +705,8 @@
         <v>0.19591198068117999</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="9"/>
+    <row r="5" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="15"/>
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -717,8 +741,8 @@
         <v>0.119989052</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="9"/>
+    <row r="6" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="15"/>
       <c r="B6" s="3">
         <v>4</v>
       </c>
@@ -783,8 +807,8 @@
         <v>0.109578412591468</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="9"/>
+    <row r="7" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="15"/>
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -820,48 +844,48 @@
       </c>
     </row>
     <row r="8" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="9"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="6">
-        <f>AVERAGE(C3:C7)</f>
+        <f t="shared" ref="C8:L8" si="0">AVERAGE(C3:C7)</f>
         <v>0.80610966488339986</v>
       </c>
       <c r="D8" s="5">
-        <f>AVERAGE(D3:D7)</f>
+        <f t="shared" si="0"/>
         <v>0.12590035704139341</v>
       </c>
       <c r="E8" s="4">
-        <f>AVERAGE(E3:E7)</f>
+        <f t="shared" si="0"/>
         <v>0.72983494902035151</v>
       </c>
       <c r="F8" s="5">
-        <f>AVERAGE(F3:F7)</f>
+        <f t="shared" si="0"/>
         <v>0.13336201107403478</v>
       </c>
       <c r="G8" s="4">
-        <f>AVERAGE(G3:G7)</f>
+        <f t="shared" si="0"/>
         <v>0.72487786017936018</v>
       </c>
       <c r="H8" s="5">
-        <f>AVERAGE(H3:H7)</f>
+        <f t="shared" si="0"/>
         <v>0.15821776199445298</v>
       </c>
       <c r="I8" s="6">
-        <f>AVERAGE(I3:I7)</f>
+        <f t="shared" si="0"/>
         <v>0.80015901165062286</v>
       </c>
-      <c r="J8" s="11">
-        <f>AVERAGE(J3:J7)</f>
+      <c r="J8" s="9">
+        <f t="shared" si="0"/>
         <v>0.10959166759296601</v>
       </c>
       <c r="K8" s="4">
-        <f>AVERAGE(K3:K7)</f>
+        <f t="shared" si="0"/>
         <v>0.67314584688930912</v>
       </c>
       <c r="L8" s="5">
-        <f>AVERAGE(L3:L7)</f>
+        <f t="shared" si="0"/>
         <v>0.13635741841373078</v>
       </c>
       <c r="M8" s="4">
@@ -876,8 +900,8 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:25" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="3">
@@ -920,8 +944,8 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:25" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="10"/>
+    <row r="10" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="14"/>
       <c r="B10" s="3">
         <v>2</v>
       </c>
@@ -962,8 +986,8 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="1:25" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="10"/>
+    <row r="11" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="14"/>
       <c r="B11" s="3">
         <v>3</v>
       </c>
@@ -1001,8 +1025,8 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:25" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="10"/>
+    <row r="12" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="14"/>
       <c r="B12" s="3">
         <v>4</v>
       </c>
@@ -1070,8 +1094,8 @@
         <v>0.12513901293277699</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="10"/>
+    <row r="13" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="14"/>
       <c r="B13" s="2">
         <v>5</v>
       </c>
@@ -1110,7 +1134,7 @@
       </c>
     </row>
     <row r="14" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="10"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
@@ -1118,40 +1142,40 @@
         <f>AVERAGE(C9:C13)</f>
         <v>0.8081852644681925</v>
       </c>
-      <c r="D14" s="11">
-        <f t="shared" ref="D14:L14" si="0">AVERAGE(D9:D13)</f>
+      <c r="D14" s="9">
+        <f t="shared" ref="D14:L14" si="1">AVERAGE(D9:D13)</f>
         <v>0.11201138347387281</v>
       </c>
       <c r="E14" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.79840075373649533</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.11992008388042381</v>
       </c>
       <c r="G14" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.85562597960233622</v>
       </c>
       <c r="H14" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1011327147483824</v>
       </c>
       <c r="I14" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.82269455790519663</v>
       </c>
       <c r="J14" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.10219940394163123</v>
       </c>
       <c r="K14" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.80234082937240581</v>
       </c>
       <c r="L14" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.10335587263107264</v>
       </c>
       <c r="M14" s="7">
@@ -1163,8 +1187,8 @@
         <v>0.10772389173507657</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="3">
@@ -1204,8 +1228,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="10"/>
+    <row r="16" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="14"/>
       <c r="B16" s="3">
         <v>2</v>
       </c>
@@ -1243,8 +1267,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="10"/>
+    <row r="17" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="14"/>
       <c r="B17" s="3">
         <v>3</v>
       </c>
@@ -1282,8 +1306,8 @@
         <v>567</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="10"/>
+    <row r="18" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="14"/>
       <c r="B18" s="3">
         <v>4</v>
       </c>
@@ -1321,8 +1345,8 @@
         <v>997</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="10"/>
+    <row r="19" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="14"/>
       <c r="B19" s="2">
         <v>5</v>
       </c>
@@ -1361,48 +1385,48 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="10"/>
+      <c r="A20" s="14"/>
       <c r="B20" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="4">
-        <f>AVERAGE(C15:C19)</f>
+        <f t="shared" ref="C20:L20" si="2">AVERAGE(C15:C19)</f>
         <v>0.78041868507862033</v>
       </c>
       <c r="D20" s="5">
-        <f>AVERAGE(D15:D19)</f>
+        <f t="shared" si="2"/>
         <v>0.12657391130924181</v>
       </c>
       <c r="E20" s="4">
-        <f>AVERAGE(E15:E19)</f>
+        <f t="shared" si="2"/>
         <v>0.78079212009906729</v>
       </c>
       <c r="F20" s="5">
-        <f>AVERAGE(F15:F19)</f>
+        <f t="shared" si="2"/>
         <v>0.13196021467447219</v>
       </c>
       <c r="G20" s="4">
-        <f>AVERAGE(G15:G19)</f>
+        <f t="shared" si="2"/>
         <v>0.84039308130741097</v>
       </c>
       <c r="H20" s="5">
-        <f>AVERAGE(H15:H19)</f>
+        <f t="shared" si="2"/>
         <v>0.11168299913406357</v>
       </c>
       <c r="I20" s="4">
-        <f>AVERAGE(I15:I19)</f>
+        <f t="shared" si="2"/>
         <v>0.78960529565811122</v>
       </c>
       <c r="J20" s="5">
-        <f>AVERAGE(J15:J19)</f>
+        <f t="shared" si="2"/>
         <v>0.11678694635629601</v>
       </c>
       <c r="K20" s="6">
-        <f>AVERAGE(K15:K19)</f>
+        <f t="shared" si="2"/>
         <v>0.79881610572338047</v>
       </c>
-      <c r="L20" s="11">
-        <f>AVERAGE(L15:L19)</f>
+      <c r="L20" s="9">
+        <f t="shared" si="2"/>
         <v>0.10703180730342821</v>
       </c>
       <c r="M20" s="4">
@@ -1414,8 +1438,8 @@
         <v>0.11880717575550034</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="10" t="s">
+    <row r="21" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="3">
@@ -1455,8 +1479,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="10"/>
+    <row r="22" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="14"/>
       <c r="B22" s="3">
         <v>2</v>
       </c>
@@ -1494,8 +1518,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="10"/>
+    <row r="23" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="14"/>
       <c r="B23" s="3">
         <v>3</v>
       </c>
@@ -1530,8 +1554,8 @@
         <v>0.13914850354194599</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="10"/>
+    <row r="24" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="14"/>
       <c r="B24" s="3">
         <v>4</v>
       </c>
@@ -1566,8 +1590,8 @@
         <v>0.16934919357299799</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="10"/>
+    <row r="25" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="14"/>
       <c r="B25" s="2">
         <v>5</v>
       </c>
@@ -1603,48 +1627,48 @@
       </c>
     </row>
     <row r="26" spans="1:15" ht="22.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="10"/>
+      <c r="A26" s="14"/>
       <c r="B26" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C26" s="7">
-        <f>AVERAGE(C21:C25)</f>
+        <f t="shared" ref="C26:L26" si="3">AVERAGE(C21:C25)</f>
         <v>0.82275657653808554</v>
       </c>
       <c r="D26" s="8">
-        <f>AVERAGE(D21:D25)</f>
+        <f t="shared" si="3"/>
         <v>0.10956209599971749</v>
       </c>
       <c r="E26" s="4">
-        <f>AVERAGE(E21:E25)</f>
+        <f t="shared" si="3"/>
         <v>0.77214389443397502</v>
       </c>
       <c r="F26" s="5">
-        <f>AVERAGE(F21:F25)</f>
+        <f t="shared" si="3"/>
         <v>0.13382178246974899</v>
       </c>
       <c r="G26" s="4">
-        <f>AVERAGE(G21:G25)</f>
+        <f t="shared" si="3"/>
         <v>0.7768917620182032</v>
       </c>
       <c r="H26" s="5">
-        <f>AVERAGE(H21:H25)</f>
+        <f t="shared" si="3"/>
         <v>0.14725507944822278</v>
       </c>
       <c r="I26" s="4">
-        <f>AVERAGE(I21:I25)</f>
+        <f t="shared" si="3"/>
         <v>0.75562401413917502</v>
       </c>
       <c r="J26" s="5">
-        <f>AVERAGE(J21:J25)</f>
+        <f t="shared" si="3"/>
         <v>0.1347535431385036</v>
       </c>
       <c r="K26" s="4">
-        <f>AVERAGE(K21:K25)</f>
+        <f t="shared" si="3"/>
         <v>0.77285830378532383</v>
       </c>
       <c r="L26" s="5">
-        <f>AVERAGE(L21:L25)</f>
+        <f t="shared" si="3"/>
         <v>0.12609065771102873</v>
       </c>
       <c r="M26" s="4">
@@ -1658,6 +1682,7 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A21:A26"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A9:A14"/>
@@ -1668,10 +1693,752 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A21:A26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD89BE37-9100-4B7B-BE2D-9D98615A2565}">
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="23.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="15"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A2" s="15"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A4" s="15"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="4">
+        <v>0.82176104999999999</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.117473656214473</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.8947700448</v>
+      </c>
+      <c r="F4" s="5">
+        <v>7.7830121274000005E-2</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.79088200770851802</v>
+      </c>
+      <c r="H4" s="5">
+        <v>9.8021230916001706E-2</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.86573669233197004</v>
+      </c>
+      <c r="J4" s="5">
+        <v>8.9198952642693993E-2</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0.79971054972067901</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0.10990895956731001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A5" s="15"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A6" s="15"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A7" s="15"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A8" s="15"/>
+      <c r="B8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="6">
+        <f t="shared" ref="C8:L8" si="0">AVERAGE(C3:C7)</f>
+        <v>0.82176104999999999</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>0.117473656214473</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.8947700448</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="0"/>
+        <v>7.7830121274000005E-2</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.79088200770851802</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="0"/>
+        <v>9.8021230916001706E-2</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" si="0"/>
+        <v>0.86573669233197004</v>
+      </c>
+      <c r="J8" s="9">
+        <f t="shared" si="0"/>
+        <v>8.9198952642693993E-2</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.79971054972067901</v>
+      </c>
+      <c r="L8" s="5">
+        <f t="shared" si="0"/>
+        <v>0.10990895956731001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="11">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.75783455371856601</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.138744756579399</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.79622487723827295</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.122062422335147</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.78209781646728005</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0.117593616</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.81664451956748896</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0.106597453355789</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.77240590751171101</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0.119901746511459</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A10" s="14"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A11" s="14"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A12" s="14"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A13" s="14"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A14" s="14"/>
+      <c r="B14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="6">
+        <f>AVERAGE(C9:C13)</f>
+        <v>0.75783455371856601</v>
+      </c>
+      <c r="D14" s="9">
+        <f t="shared" ref="D14:L14" si="1">AVERAGE(D9:D13)</f>
+        <v>0.138744756579399</v>
+      </c>
+      <c r="E14" s="7">
+        <f t="shared" si="1"/>
+        <v>0.79622487723827295</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" si="1"/>
+        <v>0.122062422335147</v>
+      </c>
+      <c r="G14" s="7">
+        <f t="shared" si="1"/>
+        <v>0.78209781646728005</v>
+      </c>
+      <c r="H14" s="8">
+        <f t="shared" si="1"/>
+        <v>0.117593616</v>
+      </c>
+      <c r="I14" s="7">
+        <f t="shared" si="1"/>
+        <v>0.81664451956748896</v>
+      </c>
+      <c r="J14" s="8">
+        <f t="shared" si="1"/>
+        <v>0.106597453355789</v>
+      </c>
+      <c r="K14" s="7">
+        <f t="shared" si="1"/>
+        <v>0.77240590751171101</v>
+      </c>
+      <c r="L14" s="8">
+        <f t="shared" si="1"/>
+        <v>0.119901746511459</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7117F278-117E-462C-B728-232EF04E90AE}">
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="13.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="15"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A2" s="15"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A4" s="15"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="4">
+        <v>0.869803579472614</v>
+      </c>
+      <c r="D4" s="5">
+        <v>9.9860337412220099E-2</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.73736603176774096</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.138513389262514</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.84907067542357595</v>
+      </c>
+      <c r="H4" s="5">
+        <v>9.3529355190925006E-2</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.85542840202394699</v>
+      </c>
+      <c r="J4" s="5">
+        <v>8.6160126726297304E-2</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0.79340881335101998</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0.107802789089132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A5" s="15"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A6" s="15"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A7" s="15"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A8" s="15"/>
+      <c r="B8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="6">
+        <f t="shared" ref="C8:L8" si="0">AVERAGE(C3:C7)</f>
+        <v>0.869803579472614</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>9.9860337412220099E-2</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.73736603176774096</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="0"/>
+        <v>0.138513389262514</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.84907067542357595</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="0"/>
+        <v>9.3529355190925006E-2</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" si="0"/>
+        <v>0.85542840202394699</v>
+      </c>
+      <c r="J8" s="9">
+        <f t="shared" si="0"/>
+        <v>8.6160126726297304E-2</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.79340881335101998</v>
+      </c>
+      <c r="L8" s="5">
+        <f t="shared" si="0"/>
+        <v>0.107802789089132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="12">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.86646640300750699</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.112061634659767</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.78519192337989796</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.119741879403591</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.78209781646728005</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0.117593616</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.81664451956748896</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0.106597453355789</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.77240590751171101</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0.119901746511459</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A10" s="14"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="4">
+        <v>0.84371511638164498</v>
+      </c>
+      <c r="H10" s="5">
+        <v>9.4249576330184895E-2</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A11" s="14"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A12" s="14"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A13" s="14"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A14" s="14"/>
+      <c r="B14" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="6">
+        <f>AVERAGE(C9:C13)</f>
+        <v>0.86646640300750699</v>
+      </c>
+      <c r="D14" s="9">
+        <f t="shared" ref="D14:L14" si="1">AVERAGE(D9:D13)</f>
+        <v>0.112061634659767</v>
+      </c>
+      <c r="E14" s="7">
+        <f t="shared" si="1"/>
+        <v>0.78519192337989796</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" si="1"/>
+        <v>0.119741879403591</v>
+      </c>
+      <c r="G14" s="7">
+        <f t="shared" si="1"/>
+        <v>0.81290646642446251</v>
+      </c>
+      <c r="H14" s="8">
+        <f t="shared" si="1"/>
+        <v>0.10592159616509245</v>
+      </c>
+      <c r="I14" s="7">
+        <f t="shared" si="1"/>
+        <v>0.81664451956748896</v>
+      </c>
+      <c r="J14" s="8">
+        <f t="shared" si="1"/>
+        <v>0.106597453355789</v>
+      </c>
+      <c r="K14" s="7">
+        <f t="shared" si="1"/>
+        <v>0.77240590751171101</v>
+      </c>
+      <c r="L14" s="8">
+        <f t="shared" si="1"/>
+        <v>0.119901746511459</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>